--- a/data/raw/election/voters-age-sex-education/2023/Rize.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Rize.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:56:20-17052545345" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="41">
   <si>
     <t>Rize</t>
   </si>
@@ -137,6 +136,12 @@
   </si>
   <si>
     <t>Rize Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -684,16 +689,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1018,10 +1032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317:E318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,52 +1051,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,8 +1153,8 @@
       <c r="G6" s="4">
         <v>373</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.458</v>
+      <c r="H6" s="5">
+        <v>1458</v>
       </c>
       <c r="I6" s="4">
         <v>278</v>
@@ -1154,8 +1168,8 @@
       <c r="L6" s="4">
         <v>20</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.14</v>
+      <c r="M6" s="6">
+        <v>2140</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,8 +1192,8 @@
       <c r="G7" s="4">
         <v>276</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.417</v>
+      <c r="H7" s="5">
+        <v>1417</v>
       </c>
       <c r="I7" s="4">
         <v>426</v>
@@ -1193,8 +1207,8 @@
       <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="5">
-        <v>2.1509999999999998</v>
+      <c r="M7" s="6">
+        <v>2151</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1234,8 +1248,8 @@
       <c r="L8" s="4">
         <v>11</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.4710000000000001</v>
+      <c r="M8" s="6">
+        <v>1471</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1273,8 +1287,8 @@
       <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.4670000000000001</v>
+      <c r="M9" s="6">
+        <v>1467</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1314,8 +1328,8 @@
       <c r="L10" s="4">
         <v>8</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.4490000000000001</v>
+      <c r="M10" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1353,8 +1367,8 @@
       <c r="L11" s="4">
         <v>11</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.401</v>
+      <c r="M11" s="6">
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1394,8 +1408,8 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.4690000000000001</v>
+      <c r="M12" s="6">
+        <v>1469</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1433,8 +1447,8 @@
       <c r="L13" s="4">
         <v>9</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.4059999999999999</v>
+      <c r="M13" s="6">
+        <v>1406</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1474,8 +1488,8 @@
       <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.5249999999999999</v>
+      <c r="M14" s="6">
+        <v>1525</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1513,8 +1527,8 @@
       <c r="L15" s="4">
         <v>5</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.5069999999999999</v>
+      <c r="M15" s="6">
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,8 +1568,8 @@
       <c r="L16" s="4">
         <v>12</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.462</v>
+      <c r="M16" s="6">
+        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1593,8 +1607,8 @@
       <c r="L17" s="4">
         <v>17</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.4279999999999999</v>
+      <c r="M17" s="6">
+        <v>1428</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1634,8 +1648,8 @@
       <c r="L18" s="4">
         <v>16</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.5960000000000001</v>
+      <c r="M18" s="6">
+        <v>1596</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,8 +1687,8 @@
       <c r="L19" s="4">
         <v>18</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.571</v>
+      <c r="M19" s="6">
+        <v>1571</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1714,8 +1728,8 @@
       <c r="L20" s="4">
         <v>15</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.4079999999999999</v>
+      <c r="M20" s="6">
+        <v>1408</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,8 +1767,8 @@
       <c r="L21" s="4">
         <v>13</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.3360000000000001</v>
+      <c r="M21" s="6">
+        <v>1336</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,8 +1808,8 @@
       <c r="L22" s="4">
         <v>12</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.1859999999999999</v>
+      <c r="M22" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1833,8 +1847,8 @@
       <c r="L23" s="4">
         <v>13</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.105</v>
+      <c r="M23" s="6">
+        <v>1105</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1874,7 +1888,7 @@
       <c r="L24" s="4">
         <v>12</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>921</v>
       </c>
     </row>
@@ -1913,7 +1927,7 @@
       <c r="L25" s="4">
         <v>13</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>959</v>
       </c>
     </row>
@@ -1954,7 +1968,7 @@
       <c r="L26" s="4">
         <v>6</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>538</v>
       </c>
     </row>
@@ -1993,7 +2007,7 @@
       <c r="L27" s="4">
         <v>9</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>605</v>
       </c>
     </row>
@@ -2034,7 +2048,7 @@
       <c r="L28" s="4">
         <v>10</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>730</v>
       </c>
     </row>
@@ -2073,54 +2087,54 @@
       <c r="L29" s="4">
         <v>15</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.498</v>
+      <c r="M29" s="6">
+        <v>1498</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7">
         <v>375</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>685</v>
       </c>
-      <c r="E30" s="5">
-        <v>6.3310000000000004</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="G30" s="5">
-        <v>4.4969999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>10.682</v>
-      </c>
-      <c r="I30" s="5">
-        <v>6.3630000000000004</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="E30" s="6">
+        <v>6331</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2538</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4497</v>
+      </c>
+      <c r="H30" s="6">
+        <v>10682</v>
+      </c>
+      <c r="I30" s="6">
+        <v>6363</v>
+      </c>
+      <c r="J30" s="7">
         <v>553</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>28</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>277</v>
       </c>
-      <c r="M30" s="5">
-        <v>32.329000000000001</v>
+      <c r="M30" s="6">
+        <v>32329</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2192,7 +2206,7 @@
       <c r="L32" s="4">
         <v>2</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="7">
         <v>309</v>
       </c>
     </row>
@@ -2231,7 +2245,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="7">
         <v>272</v>
       </c>
     </row>
@@ -2272,7 +2286,7 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="7">
         <v>277</v>
       </c>
     </row>
@@ -2311,7 +2325,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="7">
         <v>191</v>
       </c>
     </row>
@@ -2352,7 +2366,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <v>237</v>
       </c>
     </row>
@@ -2391,7 +2405,7 @@
       <c r="L37" s="4">
         <v>2</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>143</v>
       </c>
     </row>
@@ -2432,7 +2446,7 @@
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>238</v>
       </c>
     </row>
@@ -2471,7 +2485,7 @@
       <c r="L39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>141</v>
       </c>
     </row>
@@ -2512,7 +2526,7 @@
       <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <v>254</v>
       </c>
     </row>
@@ -2551,7 +2565,7 @@
       <c r="L41" s="4">
         <v>3</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <v>180</v>
       </c>
     </row>
@@ -2592,7 +2606,7 @@
       <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>244</v>
       </c>
     </row>
@@ -2631,7 +2645,7 @@
       <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>218</v>
       </c>
     </row>
@@ -2672,7 +2686,7 @@
       <c r="L44" s="4">
         <v>4</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>283</v>
       </c>
     </row>
@@ -2711,7 +2725,7 @@
       <c r="L45" s="4">
         <v>2</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>282</v>
       </c>
     </row>
@@ -2752,7 +2766,7 @@
       <c r="L46" s="4">
         <v>3</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>295</v>
       </c>
     </row>
@@ -2791,7 +2805,7 @@
       <c r="L47" s="4">
         <v>4</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>297</v>
       </c>
     </row>
@@ -2832,7 +2846,7 @@
       <c r="L48" s="4">
         <v>3</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>264</v>
       </c>
     </row>
@@ -2871,7 +2885,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>312</v>
       </c>
     </row>
@@ -2912,7 +2926,7 @@
       <c r="L50" s="4">
         <v>4</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>239</v>
       </c>
     </row>
@@ -2951,7 +2965,7 @@
       <c r="L51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>245</v>
       </c>
     </row>
@@ -2992,7 +3006,7 @@
       <c r="L52" s="4">
         <v>2</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>185</v>
       </c>
     </row>
@@ -3031,7 +3045,7 @@
       <c r="L53" s="4">
         <v>3</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>208</v>
       </c>
     </row>
@@ -3072,7 +3086,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>199</v>
       </c>
     </row>
@@ -3111,7 +3125,7 @@
       <c r="L55" s="4">
         <v>6</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>466</v>
       </c>
     </row>
@@ -3119,46 +3133,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7">
         <v>267</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>282</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>1771</v>
+      </c>
+      <c r="F56" s="7">
         <v>547</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="7">
         <v>763</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="H56" s="6">
+        <v>1543</v>
+      </c>
+      <c r="I56" s="7">
         <v>710</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="7">
         <v>41</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>4</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>51</v>
       </c>
-      <c r="M56" s="5">
-        <v>5.9790000000000001</v>
+      <c r="M56" s="6">
+        <v>5979</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3215,8 +3229,8 @@
       <c r="G58" s="4">
         <v>330</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.417</v>
+      <c r="H58" s="5">
+        <v>1417</v>
       </c>
       <c r="I58" s="4">
         <v>281</v>
@@ -3230,8 +3244,8 @@
       <c r="L58" s="4">
         <v>8</v>
       </c>
-      <c r="M58" s="5">
-        <v>2.0430000000000001</v>
+      <c r="M58" s="6">
+        <v>2043</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,8 +3268,8 @@
       <c r="G59" s="4">
         <v>181</v>
       </c>
-      <c r="H59" s="4">
-        <v>1.298</v>
+      <c r="H59" s="5">
+        <v>1298</v>
       </c>
       <c r="I59" s="4">
         <v>394</v>
@@ -3269,8 +3283,8 @@
       <c r="L59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.8859999999999999</v>
+      <c r="M59" s="6">
+        <v>1886</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3310,8 +3324,8 @@
       <c r="L60" s="4">
         <v>8</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.464</v>
+      <c r="M60" s="6">
+        <v>1464</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3349,8 +3363,8 @@
       <c r="L61" s="4">
         <v>2</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.323</v>
+      <c r="M61" s="6">
+        <v>1323</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3390,8 +3404,8 @@
       <c r="L62" s="4">
         <v>5</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.3029999999999999</v>
+      <c r="M62" s="6">
+        <v>1303</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3429,8 +3443,8 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.2230000000000001</v>
+      <c r="M63" s="6">
+        <v>1223</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3470,8 +3484,8 @@
       <c r="L64" s="4">
         <v>3</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.3440000000000001</v>
+      <c r="M64" s="6">
+        <v>1344</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3509,8 +3523,8 @@
       <c r="L65" s="4">
         <v>1</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.1870000000000001</v>
+      <c r="M65" s="6">
+        <v>1187</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3550,8 +3564,8 @@
       <c r="L66" s="4">
         <v>5</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.464</v>
+      <c r="M66" s="6">
+        <v>1464</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3589,8 +3603,8 @@
       <c r="L67" s="4">
         <v>4</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.3220000000000001</v>
+      <c r="M67" s="6">
+        <v>1322</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3630,8 +3644,8 @@
       <c r="L68" s="4">
         <v>6</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.504</v>
+      <c r="M68" s="6">
+        <v>1504</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3669,8 +3683,8 @@
       <c r="L69" s="4">
         <v>8</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.351</v>
+      <c r="M69" s="6">
+        <v>1351</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3710,8 +3724,8 @@
       <c r="L70" s="4">
         <v>10</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.631</v>
+      <c r="M70" s="6">
+        <v>1631</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3749,8 +3763,8 @@
       <c r="L71" s="4">
         <v>6</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.58</v>
+      <c r="M71" s="6">
+        <v>1580</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3790,8 +3804,8 @@
       <c r="L72" s="4">
         <v>12</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.7230000000000001</v>
+      <c r="M72" s="6">
+        <v>1723</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3829,8 +3843,8 @@
       <c r="L73" s="4">
         <v>6</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.5049999999999999</v>
+      <c r="M73" s="6">
+        <v>1505</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,8 +3884,8 @@
       <c r="L74" s="4">
         <v>9</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.5089999999999999</v>
+      <c r="M74" s="6">
+        <v>1509</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3909,8 +3923,8 @@
       <c r="L75" s="4">
         <v>15</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.377</v>
+      <c r="M75" s="6">
+        <v>1377</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3950,8 +3964,8 @@
       <c r="L76" s="4">
         <v>5</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.165</v>
+      <c r="M76" s="6">
+        <v>1165</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3989,8 +4003,8 @@
       <c r="L77" s="4">
         <v>11</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M77" s="6">
+        <v>1311</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4030,7 +4044,7 @@
       <c r="L78" s="4">
         <v>7</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>760</v>
       </c>
     </row>
@@ -4069,7 +4083,7 @@
       <c r="L79" s="4">
         <v>14</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>931</v>
       </c>
     </row>
@@ -4110,7 +4124,7 @@
       <c r="L80" s="4">
         <v>10</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>921</v>
       </c>
     </row>
@@ -4149,54 +4163,54 @@
       <c r="L81" s="4">
         <v>17</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.806</v>
+      <c r="M81" s="6">
+        <v>1806</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.806</v>
-      </c>
-      <c r="E82" s="5">
-        <v>7.4859999999999998</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.94</v>
-      </c>
-      <c r="G82" s="5">
-        <v>4.63</v>
-      </c>
-      <c r="H82" s="5">
-        <v>9.51</v>
-      </c>
-      <c r="I82" s="5">
-        <v>5.34</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>1255</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1806</v>
+      </c>
+      <c r="E82" s="6">
+        <v>7486</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2940</v>
+      </c>
+      <c r="G82" s="6">
+        <v>4630</v>
+      </c>
+      <c r="H82" s="6">
+        <v>9510</v>
+      </c>
+      <c r="I82" s="6">
+        <v>5340</v>
+      </c>
+      <c r="J82" s="7">
         <v>442</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>49</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>175</v>
       </c>
-      <c r="M82" s="5">
-        <v>33.633000000000003</v>
+      <c r="M82" s="6">
+        <v>33633</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4268,7 +4282,7 @@
       <c r="L84" s="4">
         <v>1</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="7">
         <v>307</v>
       </c>
     </row>
@@ -4307,7 +4321,7 @@
       <c r="L85" s="4">
         <v>2</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="7">
         <v>277</v>
       </c>
     </row>
@@ -4348,7 +4362,7 @@
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="7">
         <v>235</v>
       </c>
     </row>
@@ -4387,7 +4401,7 @@
       <c r="L87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="7">
         <v>192</v>
       </c>
     </row>
@@ -4428,7 +4442,7 @@
       <c r="L88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="7">
         <v>205</v>
       </c>
     </row>
@@ -4467,7 +4481,7 @@
       <c r="L89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="7">
         <v>143</v>
       </c>
     </row>
@@ -4508,7 +4522,7 @@
       <c r="L90" s="4">
         <v>2</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="7">
         <v>207</v>
       </c>
     </row>
@@ -4547,7 +4561,7 @@
       <c r="L91" s="4">
         <v>2</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="7">
         <v>160</v>
       </c>
     </row>
@@ -4588,7 +4602,7 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="7">
         <v>214</v>
       </c>
     </row>
@@ -4627,7 +4641,7 @@
       <c r="L93" s="4">
         <v>1</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="7">
         <v>175</v>
       </c>
     </row>
@@ -4668,7 +4682,7 @@
       <c r="L94" s="4">
         <v>1</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>225</v>
       </c>
     </row>
@@ -4707,7 +4721,7 @@
       <c r="L95" s="4">
         <v>2</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>198</v>
       </c>
     </row>
@@ -4748,7 +4762,7 @@
       <c r="L96" s="4">
         <v>2</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>285</v>
       </c>
     </row>
@@ -4787,7 +4801,7 @@
       <c r="L97" s="4">
         <v>2</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>270</v>
       </c>
     </row>
@@ -4828,7 +4842,7 @@
       <c r="L98" s="4">
         <v>2</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>285</v>
       </c>
     </row>
@@ -4867,7 +4881,7 @@
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>257</v>
       </c>
     </row>
@@ -4908,7 +4922,7 @@
       <c r="L100" s="4">
         <v>2</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>266</v>
       </c>
     </row>
@@ -4947,7 +4961,7 @@
       <c r="L101" s="4">
         <v>2</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>259</v>
       </c>
     </row>
@@ -4988,7 +5002,7 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>225</v>
       </c>
     </row>
@@ -5027,7 +5041,7 @@
       <c r="L103" s="4">
         <v>2</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>276</v>
       </c>
     </row>
@@ -5068,7 +5082,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>144</v>
       </c>
     </row>
@@ -5107,7 +5121,7 @@
       <c r="L105" s="4">
         <v>3</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>191</v>
       </c>
     </row>
@@ -5148,7 +5162,7 @@
       <c r="L106" s="4">
         <v>5</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>203</v>
       </c>
     </row>
@@ -5187,7 +5201,7 @@
       <c r="L107" s="4">
         <v>3</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>363</v>
       </c>
     </row>
@@ -5195,46 +5209,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="7">
         <v>196</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="7">
         <v>290</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.556</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>1556</v>
+      </c>
+      <c r="F108" s="7">
         <v>464</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="7">
         <v>679</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.579</v>
-      </c>
-      <c r="I108" s="5">
+      <c r="H108" s="6">
+        <v>1579</v>
+      </c>
+      <c r="I108" s="7">
         <v>712</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="7">
         <v>45</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>4</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>37</v>
       </c>
-      <c r="M108" s="5">
-        <v>5.5620000000000003</v>
+      <c r="M108" s="6">
+        <v>5562</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5306,7 +5320,7 @@
       <c r="L110" s="4">
         <v>6</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="7">
         <v>793</v>
       </c>
     </row>
@@ -5345,7 +5359,7 @@
       <c r="L111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="7">
         <v>690</v>
       </c>
     </row>
@@ -5386,7 +5400,7 @@
       <c r="L112" s="4">
         <v>2</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>526</v>
       </c>
     </row>
@@ -5425,7 +5439,7 @@
       <c r="L113" s="4">
         <v>4</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>516</v>
       </c>
     </row>
@@ -5466,7 +5480,7 @@
       <c r="L114" s="4">
         <v>3</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>476</v>
       </c>
     </row>
@@ -5505,7 +5519,7 @@
       <c r="L115" s="4">
         <v>4</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>471</v>
       </c>
     </row>
@@ -5546,7 +5560,7 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>494</v>
       </c>
     </row>
@@ -5585,7 +5599,7 @@
       <c r="L117" s="4">
         <v>1</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>478</v>
       </c>
     </row>
@@ -5626,7 +5640,7 @@
       <c r="L118" s="4">
         <v>2</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>547</v>
       </c>
     </row>
@@ -5665,7 +5679,7 @@
       <c r="L119" s="4">
         <v>7</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>523</v>
       </c>
     </row>
@@ -5706,7 +5720,7 @@
       <c r="L120" s="4">
         <v>3</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>557</v>
       </c>
     </row>
@@ -5745,7 +5759,7 @@
       <c r="L121" s="4">
         <v>4</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>512</v>
       </c>
     </row>
@@ -5786,7 +5800,7 @@
       <c r="L122" s="4">
         <v>6</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>586</v>
       </c>
     </row>
@@ -5825,7 +5839,7 @@
       <c r="L123" s="4">
         <v>6</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>612</v>
       </c>
     </row>
@@ -5866,7 +5880,7 @@
       <c r="L124" s="4">
         <v>8</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>572</v>
       </c>
     </row>
@@ -5905,7 +5919,7 @@
       <c r="L125" s="4">
         <v>11</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>567</v>
       </c>
     </row>
@@ -5946,7 +5960,7 @@
       <c r="L126" s="4">
         <v>8</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>581</v>
       </c>
     </row>
@@ -5985,7 +5999,7 @@
       <c r="L127" s="4">
         <v>7</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>565</v>
       </c>
     </row>
@@ -6026,7 +6040,7 @@
       <c r="L128" s="4">
         <v>6</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>535</v>
       </c>
     </row>
@@ -6065,7 +6079,7 @@
       <c r="L129" s="4">
         <v>14</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>545</v>
       </c>
     </row>
@@ -6106,7 +6120,7 @@
       <c r="L130" s="4">
         <v>3</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>362</v>
       </c>
     </row>
@@ -6145,7 +6159,7 @@
       <c r="L131" s="4">
         <v>4</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>378</v>
       </c>
     </row>
@@ -6186,7 +6200,7 @@
       <c r="L132" s="4">
         <v>11</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>515</v>
       </c>
     </row>
@@ -6225,7 +6239,7 @@
       <c r="L133" s="4">
         <v>6</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>842</v>
       </c>
     </row>
@@ -6233,46 +6247,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7">
         <v>174</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="7">
         <v>435</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>2485</v>
+      </c>
+      <c r="F134" s="7">
         <v>725</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.8340000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>4.6180000000000003</v>
-      </c>
-      <c r="I134" s="5">
-        <v>2.625</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="G134" s="6">
+        <v>1834</v>
+      </c>
+      <c r="H134" s="6">
+        <v>4618</v>
+      </c>
+      <c r="I134" s="6">
+        <v>2625</v>
+      </c>
+      <c r="J134" s="7">
         <v>195</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>20</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>132</v>
       </c>
-      <c r="M134" s="5">
-        <v>13.243</v>
+      <c r="M134" s="6">
+        <v>13243</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6344,7 +6358,7 @@
       <c r="L136" s="4">
         <v>7</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="7">
         <v>741</v>
       </c>
     </row>
@@ -6383,7 +6397,7 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="7">
         <v>667</v>
       </c>
     </row>
@@ -6424,7 +6438,7 @@
       <c r="L138" s="4">
         <v>3</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="7">
         <v>522</v>
       </c>
     </row>
@@ -6463,7 +6477,7 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="7">
         <v>450</v>
       </c>
     </row>
@@ -6504,7 +6518,7 @@
       <c r="L140" s="4">
         <v>2</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="7">
         <v>437</v>
       </c>
     </row>
@@ -6543,7 +6557,7 @@
       <c r="L141" s="4">
         <v>4</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>424</v>
       </c>
     </row>
@@ -6584,7 +6598,7 @@
       <c r="L142" s="4">
         <v>2</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="7">
         <v>518</v>
       </c>
     </row>
@@ -6623,7 +6637,7 @@
       <c r="L143" s="4">
         <v>4</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>430</v>
       </c>
     </row>
@@ -6664,7 +6678,7 @@
       <c r="L144" s="4">
         <v>2</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="7">
         <v>473</v>
       </c>
     </row>
@@ -6703,7 +6717,7 @@
       <c r="L145" s="4">
         <v>2</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>470</v>
       </c>
     </row>
@@ -6744,7 +6758,7 @@
       <c r="L146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>478</v>
       </c>
     </row>
@@ -6783,7 +6797,7 @@
       <c r="L147" s="4">
         <v>1</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>486</v>
       </c>
     </row>
@@ -6824,7 +6838,7 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>579</v>
       </c>
     </row>
@@ -6863,7 +6877,7 @@
       <c r="L149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>581</v>
       </c>
     </row>
@@ -6904,7 +6918,7 @@
       <c r="L150" s="4">
         <v>5</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>599</v>
       </c>
     </row>
@@ -6943,7 +6957,7 @@
       <c r="L151" s="4">
         <v>3</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>573</v>
       </c>
     </row>
@@ -6984,7 +6998,7 @@
       <c r="L152" s="4">
         <v>3</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>490</v>
       </c>
     </row>
@@ -7023,7 +7037,7 @@
       <c r="L153" s="4">
         <v>4</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>488</v>
       </c>
     </row>
@@ -7064,7 +7078,7 @@
       <c r="L154" s="4">
         <v>1</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>402</v>
       </c>
     </row>
@@ -7103,7 +7117,7 @@
       <c r="L155" s="4">
         <v>1</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>475</v>
       </c>
     </row>
@@ -7144,7 +7158,7 @@
       <c r="L156" s="4">
         <v>1</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>276</v>
       </c>
     </row>
@@ -7183,7 +7197,7 @@
       <c r="L157" s="4">
         <v>2</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>356</v>
       </c>
     </row>
@@ -7224,7 +7238,7 @@
       <c r="L158" s="4">
         <v>3</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>354</v>
       </c>
     </row>
@@ -7263,7 +7277,7 @@
       <c r="L159" s="4">
         <v>4</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>620</v>
       </c>
     </row>
@@ -7271,46 +7285,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7">
         <v>618</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="7">
         <v>798</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.619</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="E160" s="6">
+        <v>2586</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1136</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1630</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2990</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1619</v>
+      </c>
+      <c r="J160" s="7">
         <v>184</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>270</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>58</v>
       </c>
-      <c r="M160" s="5">
-        <v>11.888999999999999</v>
+      <c r="M160" s="6">
+        <v>11889</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7382,7 +7396,7 @@
       <c r="L162" s="4">
         <v>1</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="7">
         <v>52</v>
       </c>
     </row>
@@ -7421,7 +7435,7 @@
       <c r="L163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="7">
         <v>40</v>
       </c>
     </row>
@@ -7462,7 +7476,7 @@
       <c r="L164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="7">
         <v>57</v>
       </c>
     </row>
@@ -7501,7 +7515,7 @@
       <c r="L165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="7">
         <v>42</v>
       </c>
     </row>
@@ -7542,7 +7556,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="7">
         <v>53</v>
       </c>
     </row>
@@ -7581,7 +7595,7 @@
       <c r="L167" s="4">
         <v>1</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="7">
         <v>46</v>
       </c>
     </row>
@@ -7622,7 +7636,7 @@
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="7">
         <v>69</v>
       </c>
     </row>
@@ -7661,7 +7675,7 @@
       <c r="L169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="7">
         <v>30</v>
       </c>
     </row>
@@ -7702,7 +7716,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="7">
         <v>60</v>
       </c>
     </row>
@@ -7741,7 +7755,7 @@
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="7">
         <v>39</v>
       </c>
     </row>
@@ -7782,7 +7796,7 @@
       <c r="L172" s="4">
         <v>1</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="7">
         <v>84</v>
       </c>
     </row>
@@ -7821,7 +7835,7 @@
       <c r="L173" s="4">
         <v>2</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="7">
         <v>63</v>
       </c>
     </row>
@@ -7862,7 +7876,7 @@
       <c r="L174" s="4">
         <v>3</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="7">
         <v>81</v>
       </c>
     </row>
@@ -7901,7 +7915,7 @@
       <c r="L175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="7">
         <v>76</v>
       </c>
     </row>
@@ -7942,7 +7956,7 @@
       <c r="L176" s="4">
         <v>1</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="7">
         <v>117</v>
       </c>
     </row>
@@ -7981,7 +7995,7 @@
       <c r="L177" s="4">
         <v>1</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="7">
         <v>108</v>
       </c>
     </row>
@@ -8022,7 +8036,7 @@
       <c r="L178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="7">
         <v>119</v>
       </c>
     </row>
@@ -8061,7 +8075,7 @@
       <c r="L179" s="4">
         <v>1</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="7">
         <v>130</v>
       </c>
     </row>
@@ -8102,7 +8116,7 @@
       <c r="L180" s="4">
         <v>1</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="7">
         <v>155</v>
       </c>
     </row>
@@ -8141,7 +8155,7 @@
       <c r="L181" s="4">
         <v>1</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="7">
         <v>156</v>
       </c>
     </row>
@@ -8182,7 +8196,7 @@
       <c r="L182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>104</v>
       </c>
     </row>
@@ -8221,7 +8235,7 @@
       <c r="L183" s="4">
         <v>2</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>117</v>
       </c>
     </row>
@@ -8262,7 +8276,7 @@
       <c r="L184" s="4">
         <v>2</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>139</v>
       </c>
     </row>
@@ -8301,7 +8315,7 @@
       <c r="L185" s="4">
         <v>3</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>226</v>
       </c>
     </row>
@@ -8309,46 +8323,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>88</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="7">
         <v>157</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="7">
         <v>752</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="7">
         <v>145</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="7">
         <v>230</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="7">
         <v>472</v>
       </c>
-      <c r="I186" s="5">
+      <c r="I186" s="7">
         <v>276</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="7">
         <v>22</v>
       </c>
-      <c r="K186" s="5">
-        <v>1</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="7">
+        <v>1</v>
+      </c>
+      <c r="L186" s="7">
         <v>20</v>
       </c>
-      <c r="M186" s="5">
-        <v>2.1629999999999998</v>
+      <c r="M186" s="6">
+        <v>2163</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8420,7 +8434,7 @@
       <c r="L188" s="4">
         <v>4</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="7">
         <v>226</v>
       </c>
     </row>
@@ -8459,7 +8473,7 @@
       <c r="L189" s="4">
         <v>1</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="7">
         <v>166</v>
       </c>
     </row>
@@ -8500,7 +8514,7 @@
       <c r="L190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="7">
         <v>208</v>
       </c>
     </row>
@@ -8539,7 +8553,7 @@
       <c r="L191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="7">
         <v>135</v>
       </c>
     </row>
@@ -8580,7 +8594,7 @@
       <c r="L192" s="4">
         <v>2</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="7">
         <v>189</v>
       </c>
     </row>
@@ -8619,7 +8633,7 @@
       <c r="L193" s="4">
         <v>1</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="7">
         <v>113</v>
       </c>
     </row>
@@ -8660,7 +8674,7 @@
       <c r="L194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="7">
         <v>164</v>
       </c>
     </row>
@@ -8699,7 +8713,7 @@
       <c r="L195" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="7">
         <v>85</v>
       </c>
     </row>
@@ -8740,7 +8754,7 @@
       <c r="L196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="7">
         <v>199</v>
       </c>
     </row>
@@ -8779,7 +8793,7 @@
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="7">
         <v>96</v>
       </c>
     </row>
@@ -8820,7 +8834,7 @@
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="7">
         <v>208</v>
       </c>
     </row>
@@ -8859,7 +8873,7 @@
       <c r="L199" s="4">
         <v>1</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="7">
         <v>138</v>
       </c>
     </row>
@@ -8900,7 +8914,7 @@
       <c r="L200" s="4">
         <v>2</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="7">
         <v>257</v>
       </c>
     </row>
@@ -8939,7 +8953,7 @@
       <c r="L201" s="4">
         <v>2</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="7">
         <v>201</v>
       </c>
     </row>
@@ -8980,7 +8994,7 @@
       <c r="L202" s="4">
         <v>3</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="7">
         <v>338</v>
       </c>
     </row>
@@ -9019,7 +9033,7 @@
       <c r="L203" s="4">
         <v>1</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="7">
         <v>235</v>
       </c>
     </row>
@@ -9060,7 +9074,7 @@
       <c r="L204" s="4">
         <v>3</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>353</v>
       </c>
     </row>
@@ -9099,7 +9113,7 @@
       <c r="L205" s="4">
         <v>2</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>298</v>
       </c>
     </row>
@@ -9140,7 +9154,7 @@
       <c r="L206" s="4">
         <v>3</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>323</v>
       </c>
     </row>
@@ -9179,7 +9193,7 @@
       <c r="L207" s="4">
         <v>1</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>277</v>
       </c>
     </row>
@@ -9220,7 +9234,7 @@
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>204</v>
       </c>
     </row>
@@ -9259,7 +9273,7 @@
       <c r="L209" s="4">
         <v>1</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>240</v>
       </c>
     </row>
@@ -9300,7 +9314,7 @@
       <c r="L210" s="4">
         <v>1</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>257</v>
       </c>
     </row>
@@ -9339,7 +9353,7 @@
       <c r="L211" s="4">
         <v>7</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>533</v>
       </c>
     </row>
@@ -9347,46 +9361,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="7">
         <v>447</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="7">
         <v>396</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.649</v>
-      </c>
-      <c r="F212" s="5">
+      <c r="E212" s="6">
+        <v>1649</v>
+      </c>
+      <c r="F212" s="7">
         <v>423</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="7">
         <v>669</v>
       </c>
-      <c r="H212" s="5">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="H212" s="6">
+        <v>1201</v>
+      </c>
+      <c r="I212" s="7">
         <v>574</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="7">
         <v>44</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="7">
         <v>4</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>36</v>
       </c>
-      <c r="M212" s="5">
-        <v>5.4429999999999996</v>
+      <c r="M212" s="6">
+        <v>5443</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9458,7 +9472,7 @@
       <c r="L214" s="4">
         <v>1</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="7">
         <v>445</v>
       </c>
     </row>
@@ -9497,7 +9511,7 @@
       <c r="L215" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="7">
         <v>400</v>
       </c>
     </row>
@@ -9538,7 +9552,7 @@
       <c r="L216" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="7">
         <v>302</v>
       </c>
     </row>
@@ -9577,7 +9591,7 @@
       <c r="L217" s="4">
         <v>2</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="7">
         <v>236</v>
       </c>
     </row>
@@ -9618,7 +9632,7 @@
       <c r="L218" s="4">
         <v>1</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="7">
         <v>242</v>
       </c>
     </row>
@@ -9657,7 +9671,7 @@
       <c r="L219" s="4">
         <v>1</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="7">
         <v>212</v>
       </c>
     </row>
@@ -9698,7 +9712,7 @@
       <c r="L220" s="4">
         <v>1</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="7">
         <v>241</v>
       </c>
     </row>
@@ -9737,7 +9751,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="7">
         <v>188</v>
       </c>
     </row>
@@ -9778,7 +9792,7 @@
       <c r="L222" s="4">
         <v>1</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="7">
         <v>295</v>
       </c>
     </row>
@@ -9817,7 +9831,7 @@
       <c r="L223" s="4">
         <v>2</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="7">
         <v>237</v>
       </c>
     </row>
@@ -9858,7 +9872,7 @@
       <c r="L224" s="4">
         <v>2</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="7">
         <v>294</v>
       </c>
     </row>
@@ -9897,7 +9911,7 @@
       <c r="L225" s="4">
         <v>1</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="7">
         <v>277</v>
       </c>
     </row>
@@ -9938,7 +9952,7 @@
       <c r="L226" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="7">
         <v>392</v>
       </c>
     </row>
@@ -9977,7 +9991,7 @@
       <c r="L227" s="4">
         <v>2</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="7">
         <v>361</v>
       </c>
     </row>
@@ -10018,7 +10032,7 @@
       <c r="L228" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="7">
         <v>370</v>
       </c>
     </row>
@@ -10057,7 +10071,7 @@
       <c r="L229" s="4">
         <v>2</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="7">
         <v>361</v>
       </c>
     </row>
@@ -10098,7 +10112,7 @@
       <c r="L230" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="7">
         <v>298</v>
       </c>
     </row>
@@ -10137,7 +10151,7 @@
       <c r="L231" s="4">
         <v>1</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="7">
         <v>306</v>
       </c>
     </row>
@@ -10178,7 +10192,7 @@
       <c r="L232" s="4">
         <v>1</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="7">
         <v>281</v>
       </c>
     </row>
@@ -10217,7 +10231,7 @@
       <c r="L233" s="4">
         <v>1</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="7">
         <v>266</v>
       </c>
     </row>
@@ -10258,7 +10272,7 @@
       <c r="L234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="7">
         <v>176</v>
       </c>
     </row>
@@ -10297,7 +10311,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="7">
         <v>208</v>
       </c>
     </row>
@@ -10338,7 +10352,7 @@
       <c r="L236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="7">
         <v>198</v>
       </c>
     </row>
@@ -10377,7 +10391,7 @@
       <c r="L237" s="4">
         <v>1</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="7">
         <v>395</v>
       </c>
     </row>
@@ -10385,46 +10399,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="8"/>
+      <c r="C238" s="7">
         <v>228</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="7">
         <v>385</v>
       </c>
-      <c r="E238" s="5">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="F238" s="5">
+      <c r="E238" s="6">
+        <v>1622</v>
+      </c>
+      <c r="F238" s="7">
         <v>537</v>
       </c>
-      <c r="G238" s="5">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.125</v>
-      </c>
-      <c r="I238" s="5">
+      <c r="G238" s="6">
+        <v>1005</v>
+      </c>
+      <c r="H238" s="6">
+        <v>2125</v>
+      </c>
+      <c r="I238" s="7">
         <v>975</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="7">
         <v>78</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="7">
         <v>4</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="7">
         <v>22</v>
       </c>
-      <c r="M238" s="5">
-        <v>6.9809999999999999</v>
+      <c r="M238" s="6">
+        <v>6981</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10496,7 +10510,7 @@
       <c r="L240" s="4">
         <v>5</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="7">
         <v>677</v>
       </c>
     </row>
@@ -10535,7 +10549,7 @@
       <c r="L241" s="4">
         <v>1</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="7">
         <v>432</v>
       </c>
     </row>
@@ -10576,7 +10590,7 @@
       <c r="L242" s="4">
         <v>1</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="7">
         <v>605</v>
       </c>
     </row>
@@ -10615,7 +10629,7 @@
       <c r="L243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="7">
         <v>283</v>
       </c>
     </row>
@@ -10656,7 +10670,7 @@
       <c r="L244" s="4">
         <v>3</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="7">
         <v>390</v>
       </c>
     </row>
@@ -10695,7 +10709,7 @@
       <c r="L245" s="4">
         <v>3</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="7">
         <v>250</v>
       </c>
     </row>
@@ -10736,7 +10750,7 @@
       <c r="L246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="7">
         <v>361</v>
       </c>
     </row>
@@ -10775,7 +10789,7 @@
       <c r="L247" s="4">
         <v>1</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="7">
         <v>225</v>
       </c>
     </row>
@@ -10816,7 +10830,7 @@
       <c r="L248" s="4">
         <v>1</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="7">
         <v>385</v>
       </c>
     </row>
@@ -10855,7 +10869,7 @@
       <c r="L249" s="4">
         <v>1</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="7">
         <v>279</v>
       </c>
     </row>
@@ -10896,7 +10910,7 @@
       <c r="L250" s="4">
         <v>2</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="7">
         <v>415</v>
       </c>
     </row>
@@ -10935,7 +10949,7 @@
       <c r="L251" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="7">
         <v>359</v>
       </c>
     </row>
@@ -10976,7 +10990,7 @@
       <c r="L252" s="4">
         <v>3</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="7">
         <v>517</v>
       </c>
     </row>
@@ -11015,7 +11029,7 @@
       <c r="L253" s="4">
         <v>1</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="7">
         <v>459</v>
       </c>
     </row>
@@ -11056,7 +11070,7 @@
       <c r="L254" s="4">
         <v>2</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="7">
         <v>544</v>
       </c>
     </row>
@@ -11095,7 +11109,7 @@
       <c r="L255" s="4">
         <v>2</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="7">
         <v>468</v>
       </c>
     </row>
@@ -11136,7 +11150,7 @@
       <c r="L256" s="4">
         <v>4</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="7">
         <v>460</v>
       </c>
     </row>
@@ -11175,7 +11189,7 @@
       <c r="L257" s="4">
         <v>1</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="7">
         <v>459</v>
       </c>
     </row>
@@ -11216,7 +11230,7 @@
       <c r="L258" s="4">
         <v>2</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="7">
         <v>371</v>
       </c>
     </row>
@@ -11255,7 +11269,7 @@
       <c r="L259" s="4">
         <v>1</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="7">
         <v>407</v>
       </c>
     </row>
@@ -11296,7 +11310,7 @@
       <c r="L260" s="4">
         <v>3</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="7">
         <v>253</v>
       </c>
     </row>
@@ -11335,7 +11349,7 @@
       <c r="L261" s="4">
         <v>1</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="7">
         <v>322</v>
       </c>
     </row>
@@ -11376,7 +11390,7 @@
       <c r="L262" s="4">
         <v>2</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="7">
         <v>268</v>
       </c>
     </row>
@@ -11415,7 +11429,7 @@
       <c r="L263" s="4">
         <v>7</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="7">
         <v>568</v>
       </c>
     </row>
@@ -11423,46 +11437,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="8"/>
+      <c r="C264" s="7">
         <v>625</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="7">
         <v>649</v>
       </c>
-      <c r="E264" s="5">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>2475</v>
+      </c>
+      <c r="F264" s="7">
         <v>935</v>
       </c>
-      <c r="G264" s="5">
-        <v>1.347</v>
-      </c>
-      <c r="H264" s="5">
-        <v>2.2519999999999998</v>
-      </c>
-      <c r="I264" s="5">
-        <v>1.377</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="G264" s="6">
+        <v>1347</v>
+      </c>
+      <c r="H264" s="6">
+        <v>2252</v>
+      </c>
+      <c r="I264" s="6">
+        <v>1377</v>
+      </c>
+      <c r="J264" s="7">
         <v>48</v>
       </c>
-      <c r="K264" s="5">
-        <v>2</v>
-      </c>
-      <c r="L264" s="5">
+      <c r="K264" s="7">
+        <v>2</v>
+      </c>
+      <c r="L264" s="7">
         <v>47</v>
       </c>
-      <c r="M264" s="5">
-        <v>9.7569999999999997</v>
+      <c r="M264" s="6">
+        <v>9757</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11534,8 +11548,8 @@
       <c r="L266" s="4">
         <v>8</v>
       </c>
-      <c r="M266" s="5">
-        <v>1.3260000000000001</v>
+      <c r="M266" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11573,8 +11587,8 @@
       <c r="L267" s="4">
         <v>2</v>
       </c>
-      <c r="M267" s="5">
-        <v>1.33</v>
+      <c r="M267" s="6">
+        <v>1330</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11614,8 +11628,8 @@
       <c r="L268" s="4">
         <v>3</v>
       </c>
-      <c r="M268" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M268" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11653,7 +11667,7 @@
       <c r="L269" s="4">
         <v>2</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="7">
         <v>967</v>
       </c>
     </row>
@@ -11694,7 +11708,7 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="7">
         <v>955</v>
       </c>
     </row>
@@ -11733,7 +11747,7 @@
       <c r="L271" s="4">
         <v>6</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="7">
         <v>903</v>
       </c>
     </row>
@@ -11774,8 +11788,8 @@
       <c r="L272" s="4">
         <v>6</v>
       </c>
-      <c r="M272" s="5">
-        <v>1.0109999999999999</v>
+      <c r="M272" s="6">
+        <v>1011</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11813,7 +11827,7 @@
       <c r="L273" s="4">
         <v>7</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="7">
         <v>929</v>
       </c>
     </row>
@@ -11854,8 +11868,8 @@
       <c r="L274" s="4">
         <v>2</v>
       </c>
-      <c r="M274" s="5">
-        <v>1.042</v>
+      <c r="M274" s="6">
+        <v>1042</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11893,7 +11907,7 @@
       <c r="L275" s="4">
         <v>4</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="7">
         <v>941</v>
       </c>
     </row>
@@ -11934,8 +11948,8 @@
       <c r="L276" s="4">
         <v>4</v>
       </c>
-      <c r="M276" s="5">
-        <v>1.097</v>
+      <c r="M276" s="6">
+        <v>1097</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11973,8 +11987,8 @@
       <c r="L277" s="4">
         <v>8</v>
       </c>
-      <c r="M277" s="5">
-        <v>1.008</v>
+      <c r="M277" s="6">
+        <v>1008</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12014,8 +12028,8 @@
       <c r="L278" s="4">
         <v>9</v>
       </c>
-      <c r="M278" s="5">
-        <v>1.2509999999999999</v>
+      <c r="M278" s="6">
+        <v>1251</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12053,8 +12067,8 @@
       <c r="L279" s="4">
         <v>12</v>
       </c>
-      <c r="M279" s="5">
-        <v>1.24</v>
+      <c r="M279" s="6">
+        <v>1240</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12094,8 +12108,8 @@
       <c r="L280" s="4">
         <v>9</v>
       </c>
-      <c r="M280" s="5">
-        <v>1.2709999999999999</v>
+      <c r="M280" s="6">
+        <v>1271</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12133,8 +12147,8 @@
       <c r="L281" s="4">
         <v>12</v>
       </c>
-      <c r="M281" s="5">
-        <v>1.274</v>
+      <c r="M281" s="6">
+        <v>1274</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12174,8 +12188,8 @@
       <c r="L282" s="4">
         <v>12</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.194</v>
+      <c r="M282" s="6">
+        <v>1194</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12213,8 +12227,8 @@
       <c r="L283" s="4">
         <v>9</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.165</v>
+      <c r="M283" s="6">
+        <v>1165</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12254,7 +12268,7 @@
       <c r="L284" s="4">
         <v>6</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="7">
         <v>982</v>
       </c>
     </row>
@@ -12293,8 +12307,8 @@
       <c r="L285" s="4">
         <v>10</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.1000000000000001</v>
+      <c r="M285" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12334,7 +12348,7 @@
       <c r="L286" s="4">
         <v>4</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="7">
         <v>671</v>
       </c>
     </row>
@@ -12373,7 +12387,7 @@
       <c r="L287" s="4">
         <v>7</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="7">
         <v>781</v>
       </c>
     </row>
@@ -12414,7 +12428,7 @@
       <c r="L288" s="4">
         <v>10</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="7">
         <v>797</v>
       </c>
     </row>
@@ -12453,54 +12467,54 @@
       <c r="L289" s="4">
         <v>16</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.4450000000000001</v>
+      <c r="M289" s="6">
+        <v>1445</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="8"/>
+      <c r="C290" s="7">
         <v>832</v>
       </c>
-      <c r="D290" s="5">
-        <v>1.327</v>
-      </c>
-      <c r="E290" s="5">
-        <v>5.516</v>
-      </c>
-      <c r="F290" s="5">
-        <v>2.16</v>
-      </c>
-      <c r="G290" s="5">
-        <v>3.4169999999999998</v>
-      </c>
-      <c r="H290" s="5">
-        <v>7.5970000000000004</v>
-      </c>
-      <c r="I290" s="5">
-        <v>4.3230000000000004</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="D290" s="6">
+        <v>1327</v>
+      </c>
+      <c r="E290" s="6">
+        <v>5516</v>
+      </c>
+      <c r="F290" s="6">
+        <v>2160</v>
+      </c>
+      <c r="G290" s="6">
+        <v>3417</v>
+      </c>
+      <c r="H290" s="6">
+        <v>7597</v>
+      </c>
+      <c r="I290" s="6">
+        <v>4323</v>
+      </c>
+      <c r="J290" s="7">
         <v>372</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="7">
         <v>41</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="7">
         <v>171</v>
       </c>
-      <c r="M290" s="5">
-        <v>25.756</v>
+      <c r="M290" s="6">
+        <v>25756</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12554,11 +12568,11 @@
       <c r="F292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="4">
-        <v>1.244</v>
-      </c>
-      <c r="H292" s="4">
-        <v>4.9370000000000003</v>
+      <c r="G292" s="5">
+        <v>1244</v>
+      </c>
+      <c r="H292" s="5">
+        <v>4937</v>
       </c>
       <c r="I292" s="4">
         <v>965</v>
@@ -12572,8 +12586,8 @@
       <c r="L292" s="4">
         <v>49</v>
       </c>
-      <c r="M292" s="5">
-        <v>7.2220000000000004</v>
+      <c r="M292" s="6">
+        <v>7222</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12596,11 +12610,11 @@
       <c r="G293" s="4">
         <v>983</v>
       </c>
-      <c r="H293" s="4">
-        <v>4.9020000000000001</v>
-      </c>
-      <c r="I293" s="4">
-        <v>1.5169999999999999</v>
+      <c r="H293" s="5">
+        <v>4902</v>
+      </c>
+      <c r="I293" s="5">
+        <v>1517</v>
       </c>
       <c r="J293" s="4">
         <v>18</v>
@@ -12611,8 +12625,8 @@
       <c r="L293" s="4">
         <v>18</v>
       </c>
-      <c r="M293" s="5">
-        <v>7.4770000000000003</v>
+      <c r="M293" s="6">
+        <v>7477</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12637,11 +12651,11 @@
       <c r="G294" s="4">
         <v>721</v>
       </c>
-      <c r="H294" s="4">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="I294" s="4">
-        <v>2.3839999999999999</v>
+      <c r="H294" s="5">
+        <v>1932</v>
+      </c>
+      <c r="I294" s="5">
+        <v>2384</v>
       </c>
       <c r="J294" s="4">
         <v>223</v>
@@ -12652,8 +12666,8 @@
       <c r="L294" s="4">
         <v>31</v>
       </c>
-      <c r="M294" s="5">
-        <v>5.3250000000000002</v>
+      <c r="M294" s="6">
+        <v>5325</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12676,11 +12690,11 @@
       <c r="G295" s="4">
         <v>580</v>
       </c>
-      <c r="H295" s="4">
-        <v>1.506</v>
-      </c>
-      <c r="I295" s="4">
-        <v>3.3940000000000001</v>
+      <c r="H295" s="5">
+        <v>1506</v>
+      </c>
+      <c r="I295" s="5">
+        <v>3394</v>
       </c>
       <c r="J295" s="4">
         <v>351</v>
@@ -12691,8 +12705,8 @@
       <c r="L295" s="4">
         <v>15</v>
       </c>
-      <c r="M295" s="5">
-        <v>5.9180000000000001</v>
+      <c r="M295" s="6">
+        <v>5918</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12717,11 +12731,11 @@
       <c r="G296" s="4">
         <v>407</v>
       </c>
-      <c r="H296" s="4">
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="I296" s="4">
-        <v>2.27</v>
+      <c r="H296" s="5">
+        <v>2075</v>
+      </c>
+      <c r="I296" s="5">
+        <v>2270</v>
       </c>
       <c r="J296" s="4">
         <v>333</v>
@@ -12732,8 +12746,8 @@
       <c r="L296" s="4">
         <v>14</v>
       </c>
-      <c r="M296" s="5">
-        <v>5.42</v>
+      <c r="M296" s="6">
+        <v>5420</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12756,11 +12770,11 @@
       <c r="G297" s="4">
         <v>382</v>
       </c>
-      <c r="H297" s="4">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="I297" s="4">
-        <v>2.6880000000000002</v>
+      <c r="H297" s="5">
+        <v>1682</v>
+      </c>
+      <c r="I297" s="5">
+        <v>2688</v>
       </c>
       <c r="J297" s="4">
         <v>396</v>
@@ -12771,8 +12785,8 @@
       <c r="L297" s="4">
         <v>33</v>
       </c>
-      <c r="M297" s="5">
-        <v>5.6369999999999996</v>
+      <c r="M297" s="6">
+        <v>5637</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12797,11 +12811,11 @@
       <c r="G298" s="4">
         <v>327</v>
       </c>
-      <c r="H298" s="4">
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="I298" s="4">
-        <v>2.0129999999999999</v>
+      <c r="H298" s="5">
+        <v>2096</v>
+      </c>
+      <c r="I298" s="5">
+        <v>2013</v>
       </c>
       <c r="J298" s="4">
         <v>321</v>
@@ -12812,8 +12826,8 @@
       <c r="L298" s="4">
         <v>6</v>
       </c>
-      <c r="M298" s="5">
-        <v>5.468</v>
+      <c r="M298" s="6">
+        <v>5468</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12836,11 +12850,11 @@
       <c r="G299" s="4">
         <v>492</v>
       </c>
-      <c r="H299" s="4">
-        <v>1.954</v>
-      </c>
-      <c r="I299" s="4">
-        <v>1.931</v>
+      <c r="H299" s="5">
+        <v>1954</v>
+      </c>
+      <c r="I299" s="5">
+        <v>1931</v>
       </c>
       <c r="J299" s="4">
         <v>299</v>
@@ -12851,8 +12865,8 @@
       <c r="L299" s="4">
         <v>27</v>
       </c>
-      <c r="M299" s="5">
-        <v>5.7350000000000003</v>
+      <c r="M299" s="6">
+        <v>5735</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12877,11 +12891,11 @@
       <c r="G300" s="4">
         <v>637</v>
       </c>
-      <c r="H300" s="4">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="I300" s="4">
-        <v>1.546</v>
+      <c r="H300" s="5">
+        <v>2119</v>
+      </c>
+      <c r="I300" s="5">
+        <v>1546</v>
       </c>
       <c r="J300" s="4">
         <v>262</v>
@@ -12892,8 +12906,8 @@
       <c r="L300" s="4">
         <v>20</v>
       </c>
-      <c r="M300" s="5">
-        <v>5.633</v>
+      <c r="M300" s="6">
+        <v>5633</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12916,11 +12930,11 @@
       <c r="G301" s="4">
         <v>851</v>
       </c>
-      <c r="H301" s="4">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="I301" s="4">
-        <v>1.3440000000000001</v>
+      <c r="H301" s="5">
+        <v>1846</v>
+      </c>
+      <c r="I301" s="5">
+        <v>1344</v>
       </c>
       <c r="J301" s="4">
         <v>191</v>
@@ -12931,8 +12945,8 @@
       <c r="L301" s="4">
         <v>23</v>
       </c>
-      <c r="M301" s="5">
-        <v>5.79</v>
+      <c r="M301" s="6">
+        <v>5790</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12957,11 +12971,11 @@
       <c r="G302" s="4">
         <v>665</v>
       </c>
-      <c r="H302" s="4">
-        <v>1.9219999999999999</v>
-      </c>
-      <c r="I302" s="4">
-        <v>1.123</v>
+      <c r="H302" s="5">
+        <v>1922</v>
+      </c>
+      <c r="I302" s="5">
+        <v>1123</v>
       </c>
       <c r="J302" s="4">
         <v>141</v>
@@ -12972,8 +12986,8 @@
       <c r="L302" s="4">
         <v>11</v>
       </c>
-      <c r="M302" s="5">
-        <v>5.2439999999999998</v>
+      <c r="M302" s="6">
+        <v>5244</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -12987,8 +13001,8 @@
       <c r="D303" s="4">
         <v>36</v>
       </c>
-      <c r="E303" s="4">
-        <v>1.03</v>
+      <c r="E303" s="5">
+        <v>1030</v>
       </c>
       <c r="F303" s="4">
         <v>794</v>
@@ -12996,8 +13010,8 @@
       <c r="G303" s="4">
         <v>955</v>
       </c>
-      <c r="H303" s="4">
-        <v>1.4990000000000001</v>
+      <c r="H303" s="5">
+        <v>1499</v>
       </c>
       <c r="I303" s="4">
         <v>749</v>
@@ -13011,8 +13025,8 @@
       <c r="L303" s="4">
         <v>17</v>
       </c>
-      <c r="M303" s="5">
-        <v>5.23</v>
+      <c r="M303" s="6">
+        <v>5230</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13031,14 +13045,14 @@
       <c r="E304" s="4">
         <v>585</v>
       </c>
-      <c r="F304" s="4">
-        <v>1.046</v>
+      <c r="F304" s="5">
+        <v>1046</v>
       </c>
       <c r="G304" s="4">
         <v>837</v>
       </c>
-      <c r="H304" s="4">
-        <v>1.653</v>
+      <c r="H304" s="5">
+        <v>1653</v>
       </c>
       <c r="I304" s="4">
         <v>870</v>
@@ -13052,8 +13066,8 @@
       <c r="L304" s="4">
         <v>22</v>
       </c>
-      <c r="M304" s="5">
-        <v>5.1920000000000002</v>
+      <c r="M304" s="6">
+        <v>5192</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13067,8 +13081,8 @@
       <c r="D305" s="4">
         <v>87</v>
       </c>
-      <c r="E305" s="4">
-        <v>1.4470000000000001</v>
+      <c r="E305" s="5">
+        <v>1447</v>
       </c>
       <c r="F305" s="4">
         <v>840</v>
@@ -13076,8 +13090,8 @@
       <c r="G305" s="4">
         <v>876</v>
       </c>
-      <c r="H305" s="4">
-        <v>1.19</v>
+      <c r="H305" s="5">
+        <v>1190</v>
       </c>
       <c r="I305" s="4">
         <v>398</v>
@@ -13091,8 +13105,8 @@
       <c r="L305" s="4">
         <v>25</v>
       </c>
-      <c r="M305" s="5">
-        <v>4.968</v>
+      <c r="M305" s="6">
+        <v>4968</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13117,8 +13131,8 @@
       <c r="G306" s="4">
         <v>883</v>
       </c>
-      <c r="H306" s="4">
-        <v>1.3919999999999999</v>
+      <c r="H306" s="5">
+        <v>1392</v>
       </c>
       <c r="I306" s="4">
         <v>550</v>
@@ -13132,8 +13146,8 @@
       <c r="L306" s="4">
         <v>21</v>
       </c>
-      <c r="M306" s="5">
-        <v>4.5209999999999999</v>
+      <c r="M306" s="6">
+        <v>4521</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13147,8 +13161,8 @@
       <c r="D307" s="4">
         <v>244</v>
       </c>
-      <c r="E307" s="4">
-        <v>1.8129999999999999</v>
+      <c r="E307" s="5">
+        <v>1813</v>
       </c>
       <c r="F307" s="4">
         <v>649</v>
@@ -13171,8 +13185,8 @@
       <c r="L307" s="4">
         <v>31</v>
       </c>
-      <c r="M307" s="5">
-        <v>4.476</v>
+      <c r="M307" s="6">
+        <v>4476</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13188,8 +13202,8 @@
       <c r="D308" s="4">
         <v>26</v>
       </c>
-      <c r="E308" s="4">
-        <v>1.145</v>
+      <c r="E308" s="5">
+        <v>1145</v>
       </c>
       <c r="F308" s="4">
         <v>393</v>
@@ -13197,8 +13211,8 @@
       <c r="G308" s="4">
         <v>592</v>
       </c>
-      <c r="H308" s="4">
-        <v>1.0629999999999999</v>
+      <c r="H308" s="5">
+        <v>1063</v>
       </c>
       <c r="I308" s="4">
         <v>436</v>
@@ -13212,8 +13226,8 @@
       <c r="L308" s="4">
         <v>22</v>
       </c>
-      <c r="M308" s="5">
-        <v>3.7360000000000002</v>
+      <c r="M308" s="6">
+        <v>3736</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13227,8 +13241,8 @@
       <c r="D309" s="4">
         <v>465</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.784</v>
+      <c r="E309" s="5">
+        <v>1784</v>
       </c>
       <c r="F309" s="4">
         <v>324</v>
@@ -13251,8 +13265,8 @@
       <c r="L309" s="4">
         <v>38</v>
       </c>
-      <c r="M309" s="5">
-        <v>3.774</v>
+      <c r="M309" s="6">
+        <v>3774</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13268,8 +13282,8 @@
       <c r="D310" s="4">
         <v>53</v>
       </c>
-      <c r="E310" s="4">
-        <v>1.484</v>
+      <c r="E310" s="5">
+        <v>1484</v>
       </c>
       <c r="F310" s="4">
         <v>172</v>
@@ -13292,8 +13306,8 @@
       <c r="L310" s="4">
         <v>20</v>
       </c>
-      <c r="M310" s="5">
-        <v>3</v>
+      <c r="M310" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13307,8 +13321,8 @@
       <c r="D311" s="4">
         <v>683</v>
       </c>
-      <c r="E311" s="4">
-        <v>1.546</v>
+      <c r="E311" s="5">
+        <v>1546</v>
       </c>
       <c r="F311" s="4">
         <v>124</v>
@@ -13331,8 +13345,8 @@
       <c r="L311" s="4">
         <v>23</v>
       </c>
-      <c r="M311" s="5">
-        <v>3.137</v>
+      <c r="M311" s="6">
+        <v>3137</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13348,8 +13362,8 @@
       <c r="D312" s="4">
         <v>66</v>
       </c>
-      <c r="E312" s="4">
-        <v>1.1339999999999999</v>
+      <c r="E312" s="5">
+        <v>1134</v>
       </c>
       <c r="F312" s="4">
         <v>55</v>
@@ -13372,8 +13386,8 @@
       <c r="L312" s="4">
         <v>15</v>
       </c>
-      <c r="M312" s="5">
-        <v>1.7569999999999999</v>
+      <c r="M312" s="6">
+        <v>1757</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13411,8 +13425,8 @@
       <c r="L313" s="4">
         <v>26</v>
       </c>
-      <c r="M313" s="5">
-        <v>2.0939999999999999</v>
+      <c r="M313" s="6">
+        <v>2094</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13428,8 +13442,8 @@
       <c r="D314" s="4">
         <v>184</v>
       </c>
-      <c r="E314" s="4">
-        <v>1.3779999999999999</v>
+      <c r="E314" s="5">
+        <v>1378</v>
       </c>
       <c r="F314" s="4">
         <v>27</v>
@@ -13452,8 +13466,8 @@
       <c r="L314" s="4">
         <v>22</v>
       </c>
-      <c r="M314" s="5">
-        <v>1.9910000000000001</v>
+      <c r="M314" s="6">
+        <v>1991</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13461,11 +13475,11 @@
       <c r="B315" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="D315" s="4">
-        <v>1.2649999999999999</v>
+      <c r="C315" s="5">
+        <v>1320</v>
+      </c>
+      <c r="D315" s="5">
+        <v>1265</v>
       </c>
       <c r="E315" s="4">
         <v>978</v>
@@ -13491,51 +13505,66 @@
       <c r="L315" s="4">
         <v>49</v>
       </c>
-      <c r="M315" s="5">
-        <v>3.7120000000000002</v>
+      <c r="M315" s="6">
+        <v>3712</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>2.597</v>
-      </c>
-      <c r="D316" s="5">
-        <v>3.9390000000000001</v>
-      </c>
-      <c r="E316" s="5">
-        <v>17.977</v>
-      </c>
-      <c r="F316" s="5">
-        <v>9.2769999999999992</v>
-      </c>
-      <c r="G316" s="5">
-        <v>13.186999999999999</v>
-      </c>
-      <c r="H316" s="5">
-        <v>36.06</v>
-      </c>
-      <c r="I316" s="5">
-        <v>25.332000000000001</v>
-      </c>
-      <c r="J316" s="5">
-        <v>3.0139999999999998</v>
-      </c>
-      <c r="K316" s="5">
+      <c r="B316" s="8"/>
+      <c r="C316" s="6">
+        <v>2597</v>
+      </c>
+      <c r="D316" s="6">
+        <v>3939</v>
+      </c>
+      <c r="E316" s="6">
+        <v>17977</v>
+      </c>
+      <c r="F316" s="6">
+        <v>9277</v>
+      </c>
+      <c r="G316" s="6">
+        <v>13187</v>
+      </c>
+      <c r="H316" s="6">
+        <v>36060</v>
+      </c>
+      <c r="I316" s="6">
+        <v>25332</v>
+      </c>
+      <c r="J316" s="6">
+        <v>3014</v>
+      </c>
+      <c r="K316" s="7">
         <v>496</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="7">
         <v>578</v>
       </c>
-      <c r="M316" s="5">
-        <v>112.45699999999999</v>
+      <c r="M316" s="6">
+        <v>112457</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -13544,11 +13573,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
